--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,238 +62,268 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.837+/-0.002</t>
-  </si>
-  <si>
-    <t>0.761+/-0.0</t>
-  </si>
-  <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.801+/-0.002</t>
-  </si>
-  <si>
-    <t>0.733+/-0.011</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.896+/-0.003</t>
-  </si>
-  <si>
-    <t>0.819+/-0.014</t>
-  </si>
-  <si>
-    <t>0.765</t>
-  </si>
-  <si>
-    <t>9.437+/-0.031</t>
-  </si>
-  <si>
-    <t>0.703+/-0.002</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
-    <t>0.657</t>
-  </si>
-  <si>
-    <t>0.674+/-0.002</t>
-  </si>
-  <si>
-    <t>0.664+/-0.01</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.786+/-0.003</t>
-  </si>
-  <si>
-    <t>0.772+/-0.016</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>1.833+/-0.018</t>
-  </si>
-  <si>
-    <t>0.784+/-0.002</t>
-  </si>
-  <si>
-    <t>0.749+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.756+/-0.002</t>
-  </si>
-  <si>
-    <t>0.723+/-0.013</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.805+/-0.011</t>
-  </si>
-  <si>
-    <t>0.757</t>
-  </si>
-  <si>
-    <t>7.474+/-0.045</t>
-  </si>
-  <si>
-    <t>0.678+/-0.002</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
+    <t>0.5+/-0.0</t>
   </si>
   <si>
     <t>0.619</t>
   </si>
   <si>
-    <t>0.624+/-0.002</t>
-  </si>
-  <si>
-    <t>0.617+/-0.007</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.891+/-0.004</t>
-  </si>
-  <si>
-    <t>0.882+/-0.016</t>
-  </si>
-  <si>
-    <t>0.871</t>
-  </si>
-  <si>
-    <t>0.823+/-0.011</t>
-  </si>
-  <si>
-    <t>0.865+/-0.001</t>
-  </si>
-  <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.893+/-0.002</t>
-  </si>
-  <si>
-    <t>0.84+/-0.01</t>
-  </si>
-  <si>
-    <t>0.514</t>
-  </si>
-  <si>
-    <t>0.829+/-0.003</t>
-  </si>
-  <si>
-    <t>0.754+/-0.015</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>15.384+/-0.891</t>
-  </si>
-  <si>
-    <t>0.731+/-0.002</t>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.821+/-0.003</t>
+  </si>
+  <si>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.772+/-0.003</t>
+  </si>
+  <si>
+    <t>0.702+/-0.009</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.91+/-0.002</t>
+  </si>
+  <si>
+    <t>0.84+/-0.018</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>14.521+/-1.384</t>
+  </si>
+  <si>
+    <t>0.69+/-0.003</t>
+  </si>
+  <si>
+    <t>0.678+/-0.0</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.656+/-0.002</t>
+  </si>
+  <si>
+    <t>0.646+/-0.009</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.799+/-0.004</t>
+  </si>
+  <si>
+    <t>0.788+/-0.018</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>2.233+/-0.082</t>
+  </si>
+  <si>
+    <t>0.776+/-0.002</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.739+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.012</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.851+/-0.003</t>
+  </si>
+  <si>
+    <t>0.82+/-0.023</t>
+  </si>
+  <si>
+    <t>0.764</t>
+  </si>
+  <si>
+    <t>9.154+/-0.237</t>
+  </si>
+  <si>
+    <t>0.67+/-0.002</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.617+/-0.002</t>
+  </si>
+  <si>
+    <t>0.61+/-0.007</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.895+/-0.003</t>
+  </si>
+  <si>
+    <t>0.884+/-0.012</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>1.296+/-0.037</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.863+/-0.002</t>
+  </si>
+  <si>
+    <t>0.808+/-0.0</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.896+/-0.002</t>
+  </si>
+  <si>
+    <t>0.844+/-0.012</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>0.823+/-0.003</t>
+  </si>
+  <si>
+    <t>0.757+/-0.01</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>17.705+/-1.672</t>
+  </si>
+  <si>
+    <t>0.732+/-0.003</t>
   </si>
   <si>
     <t>0.723+/-0.0</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.759+/-0.003</t>
-  </si>
-  <si>
-    <t>0.749+/-0.009</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.678+/-0.005</t>
-  </si>
-  <si>
-    <t>0.671+/-0.018</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>2.268+/-0.011</t>
-  </si>
-  <si>
-    <t>0.828+/-0.002</t>
-  </si>
-  <si>
-    <t>0.808+/-0.0</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.853+/-0.002</t>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.761+/-0.004</t>
+  </si>
+  <si>
+    <t>0.752+/-0.013</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.677+/-0.007</t>
+  </si>
+  <si>
+    <t>0.667+/-0.01</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>2.793+/-0.042</t>
+  </si>
+  <si>
+    <t>0.83+/-0.003</t>
+  </si>
+  <si>
+    <t>0.807+/-0.0</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.856+/-0.002</t>
   </si>
   <si>
     <t>0.832+/-0.007</t>
   </si>
   <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.793+/-0.003</t>
-  </si>
-  <si>
-    <t>0.772+/-0.019</t>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.793+/-0.005</t>
+  </si>
+  <si>
+    <t>0.77+/-0.013</t>
   </si>
   <si>
     <t>0.551</t>
   </si>
   <si>
-    <t>9.379+/-0.028</t>
-  </si>
-  <si>
-    <t>0.708+/-0.002</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.821+/-0.003</t>
-  </si>
-  <si>
-    <t>0.807+/-0.019</t>
-  </si>
-  <si>
-    <t>0.532+/-0.005</t>
-  </si>
-  <si>
-    <t>0.522+/-0.015</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>1.032+/-0.012</t>
+    <t>12.445+/-0.967</t>
+  </si>
+  <si>
+    <t>0.703+/-0.003</t>
+  </si>
+  <si>
+    <t>0.693+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.82+/-0.003</t>
+  </si>
+  <si>
+    <t>0.806+/-0.019</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.52+/-0.007</t>
+  </si>
+  <si>
+    <t>0.508+/-0.019</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>1.329+/-0.128</t>
   </si>
 </sst>
 </file>
@@ -682,16 +712,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -699,19 +729,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -719,19 +749,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -739,19 +769,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -759,19 +789,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -779,19 +809,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -799,19 +829,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -819,19 +849,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -839,19 +869,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -859,19 +889,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -909,19 +939,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -929,19 +959,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -949,19 +979,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -969,19 +999,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -989,19 +1019,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1009,19 +1039,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1029,19 +1059,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1049,19 +1079,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1069,19 +1099,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>91</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1089,19 +1119,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
         <v>92</v>
       </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
